--- a/storage/app/plantillaExcel/ImportarPreguntasVerdaderoFalso.xlsx
+++ b/storage/app/plantillaExcel/ImportarPreguntasVerdaderoFalso.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\SIGEN_Resources\SIGEN\storage\app\plantillaExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FFEA3DAE-B339-4A6C-9529-31529F89A774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5FDB7E-7DE8-4B86-9099-26DCF1AD90C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{0622C781-A97F-45D9-9ACD-0F1875EEC481}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Preguntas Falso Verdadero" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,9 +30,71 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+  <si>
+    <t>Pregunta</t>
+  </si>
+  <si>
+    <t>Pregunta  1</t>
+  </si>
+  <si>
+    <t>Pregunta  2</t>
+  </si>
+  <si>
+    <t>Pregunta  3</t>
+  </si>
+  <si>
+    <t>Pregunta  4</t>
+  </si>
+  <si>
+    <t>Pregunta  5</t>
+  </si>
+  <si>
+    <t>Pregunta  6</t>
+  </si>
+  <si>
+    <t>Pregunta  7</t>
+  </si>
+  <si>
+    <t>Pregunta  8</t>
+  </si>
+  <si>
+    <t>Pregunta  9</t>
+  </si>
+  <si>
+    <t>Pregunta  10</t>
+  </si>
+  <si>
+    <t>Pregunta  11</t>
+  </si>
+  <si>
+    <t>Pregunta  12</t>
+  </si>
+  <si>
+    <t>Pregunta  13</t>
+  </si>
+  <si>
+    <t>Pregunta  14</t>
+  </si>
+  <si>
+    <t>OpcionCorrecta</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>NOTA: Poner la respuesta correcta según corresponda con F para Falso y V para Verdadero. No modificar los encabezados de cada columna.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -40,16 +102,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -57,12 +157,139 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -377,12 +604,166 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82EE6D5-39B6-4ADD-B763-DD534A75A850}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="45.85546875" style="12" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="3"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="7"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="10"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="11"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D1:F4"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{289084F0-3509-4AE7-9854-F97AD108B289}">
+      <formula1>1</formula1>
+      <formula2>1</formula2>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/storage/app/plantillaExcel/ImportarPreguntasVerdaderoFalso.xlsx
+++ b/storage/app/plantillaExcel/ImportarPreguntasVerdaderoFalso.xlsx
@@ -8,7 +8,8 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\SIGEN_Resources\SIGEN\storage\app\plantillaExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5FDB7E-7DE8-4B86-9099-26DCF1AD90C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA630801-4B7D-43B6-B732-520A0250540A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="p/iwKrAXa9XXjUNh5qzyBK9hz4ZbvHHGbY9ZYKCY6WKp4SpyIuD1OrZMCwsuZgdr5qj1S5uruW2rled9UCiy7g==" workbookSaltValue="LmmlGHGveaGs+Xc8M1MZyQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{0622C781-A97F-45D9-9ACD-0F1875EEC481}"/>
   </bookViews>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>Pregunta</t>
   </si>
@@ -87,14 +88,46 @@
     <t>f</t>
   </si>
   <si>
-    <t>NOTA: Poner la respuesta correcta según corresponda con F para Falso y V para Verdadero. No modificar los encabezados de cada columna.</t>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NOTA:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Poner la respuesta correcta según corresponda con F para Falso y V para Verdadero. No modificar los encabezados de cada columna.</t>
+    </r>
+  </si>
+  <si>
+    <t>Pregunta  15</t>
+  </si>
+  <si>
+    <t>Pregunta  16</t>
+  </si>
+  <si>
+    <t>Verificacion de plantilla</t>
+  </si>
+  <si>
+    <t>2FV</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -111,6 +144,21 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -149,7 +197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -252,44 +300,98 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -604,157 +706,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D82EE6D5-39B6-4ADD-B763-DD534A75A850}">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.85546875" style="12" customWidth="1"/>
-    <col min="2" max="2" width="18.140625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="45.85546875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="18.140625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E1" s="3"/>
-      <c r="F1" s="5"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="7"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="7"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="8"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="5" t="s">
         <v>16</v>
       </c>
+      <c r="D6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="16" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F9" s="11"/>
+      <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>17</v>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <sheetProtection algorithmName="SHA-512" hashValue="YRwOCWdvyFGYscfprQ8vr8RHsOLV0M21TssewSbg23V5JPocqQdWRACqL3Pr7/WmGXyl7195xR0axZNTUsQaVg==" saltValue="5esoSj+wVnhGPlc4IQf6lg==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <mergeCells count="2">
     <mergeCell ref="D1:F4"/>
+    <mergeCell ref="D6:E6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
